--- a/framework/excel/src/main/resources/demo.xlsx
+++ b/framework/excel/src/main/resources/demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luo.yongqian\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\luo.yongqian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AD49DF-7775-4E31-9BD2-F61C64DFB1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D74F104-6929-4E37-ABB0-1865AFAD83BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>字符串标题</t>
   </si>
@@ -70,15 +70,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>债务人编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,13 +133,13 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,171 +446,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="17.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>16</v>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
         <v>454235</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
         <v>454236</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
         <v>454237</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
         <v>454238</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
         <v>454239</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
         <v>454240</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
         <v>454241</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
         <v>454242</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
         <v>454243</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
         <v>454244</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
